--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_1</t>
+          <t>model_28_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995918418290036</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993521178935639</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997921620459924</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999384248289941</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999905453856099</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003809977365520465</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006047695076203887</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001750347671486287</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.35126311156802e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>9.427369913215446e-05</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001108612733454382</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01951916331588131</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000466466481139</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02035013450847669</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P2" t="n">
-        <v>105.745434247327</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q2" t="n">
-        <v>160.594846366396</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_2</t>
+          <t>model_28_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996623001084786</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993502435137813</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998012701243072</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999324949441172</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999086464206884</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000315228025423189</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006065191588716951</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001673642222059661</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.481394048422653e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>9.109033425705836e-05</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001091754905730189</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01775466207572504</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000385942733167</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01851051479750587</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P3" t="n">
-        <v>106.1244285815769</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.973840700646</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_0</t>
+          <t>model_28_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995006206095146</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993438544157645</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997579734886093</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999395863224012</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998911437859914</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004661487407962691</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006124831014214381</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002038273243563667</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.325774214507337e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00010854253325072</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001125031034662279</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02159047801222264</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000570719303412</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0225096293596538</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P4" t="n">
-        <v>105.3420115770193</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q4" t="n">
-        <v>160.1914236960883</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_3</t>
+          <t>model_28_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997167837134415</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993404001932861</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997898017191218</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999231046409562</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999027712256334</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002643699717442004</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000615707466482192</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000177022562237172</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.687463638820608e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K5" t="n">
-        <v>9.694859931268904e-05</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001073757323578634</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01625945791667731</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000323675756067</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01695165670190817</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P5" t="n">
-        <v>106.4763220555038</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q5" t="n">
-        <v>161.3257341745728</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_4</t>
+          <t>model_28_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997584746928075</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993243827337698</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997618597094028</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999098382656449</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998895114144498</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002254532725285003</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006306590618554665</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00020055446808267</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.978593379745862e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001101702009400643</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001054429255956442</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0150151014824576</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000276028922506</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0156543254381108</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P6" t="n">
-        <v>106.794795275325</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.644207394394</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_5</t>
+          <t>model_28_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997897927059622</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993036974316647</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99972128898712</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998925462583974</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998704746491406</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001962192819504276</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006499678833906607</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002347218893398879</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>2.358065350946561e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001291521097854758</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001041637122514132</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01400782930901243</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000240236907472</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01460417160290123</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P7" t="n">
-        <v>107.0725554772929</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q7" t="n">
-        <v>161.9219675963619</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_6</t>
+          <t>model_28_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999812802427179</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.999279769652614</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99967199398625</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998715048925126</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998473427024221</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001747407172046341</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006723034148263898</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002762366311495942</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>2.819816752893959e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001522173993392669</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001032620694420369</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01321895295417281</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000213940083224</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0137817111484369</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P8" t="n">
-        <v>107.3044145973851</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.1538267164542</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_7</t>
+          <t>model_28_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998291894986048</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992537695367005</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9996170839600799</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998473222569421</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998214930098046</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001594441053379336</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006965733817584497</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000322480175504626</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>3.350503113209297e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001779926033183595</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001024209193995216</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01262711785554936</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000195212001594</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01316468040439751</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P9" t="n">
-        <v>107.4876342678189</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.3370463868879</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_8</t>
+          <t>model_28_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998403747058646</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9992266735202531</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999559111600826</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998208494740326</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997940980771201</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001490032053347225</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007218663237344497</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003713027231067093</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.931446607506091e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002053085945908851</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00101619934802131</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01220668691065362</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000182428907583</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01272635084376552</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P10" t="n">
-        <v>107.6230854798733</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q10" t="n">
-        <v>162.4724975989423</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_9</t>
+          <t>model_28_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999847519584433</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991992399053289</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9994999598381162</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997929114742838</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997660438453988</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001423337748150998</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007474743990696791</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004211185282216295</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>4.544544189775332e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002332819850596914</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001008617876029229</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01193037194789416</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000174263332077</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01243827258099056</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P11" t="n">
-        <v>107.7146714633263</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.5640835823953</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_10</t>
+          <t>model_28_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998515684909114</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991720647959002</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9994411377989004</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997643375505479</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999738058878239</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001385542983439918</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007728411708720023</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004706566502961382</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>5.171597082465414e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002611863105603962</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001001339626115703</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01177090898546037</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000169636010387</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01227202095011213</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P12" t="n">
-        <v>107.7684965267235</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.6179086457926</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_11</t>
+          <t>model_28_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998532660702234</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999145568392416</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9993836389193063</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997357207550324</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997106279658339</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001369696825713203</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007975744004667721</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005190804478124721</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>5.799590793562096e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002885381778740465</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009944386297217134</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01170340474269434</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000167695919745</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0122016429119785</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P13" t="n">
-        <v>107.7915019034508</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.6409140225198</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998531997625779</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999120059691609</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9993281531750171</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997075996604428</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996841006691405</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001370315778478195</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008213856529674766</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005658088443562352</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>6.416706380172054e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003149890333407547</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009879593733409444</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01170604877180253</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000167771699911</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01220439950287972</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P14" t="n">
-        <v>107.7905983269131</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.6400104459821</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_13</t>
+          <t>model_28_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998518481934066</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990957488959121</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9992752273616159</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996803454388743</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9996587504759761</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000138293208342222</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008440787136299024</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0006103813454138997</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>7.01479849487422e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003402661772274613</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009818348023557895</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01175981327837402</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000169316350392</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01226045287580384</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P15" t="n">
-        <v>107.772268857308</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.621680976377</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_14</t>
+          <t>model_28_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998495970688727</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990727768813616</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9992252606383004</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996543161911159</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996347866600637</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001403945342816874</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008655220808578897</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0006524617913193146</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>7.58600863920886e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003641609388557016</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0009760380351372731</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01184881995312982</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000171889064146</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0123532487489732</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P16" t="n">
-        <v>107.7421079934959</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.5915201125649</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_15</t>
+          <t>model_28_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998467125358177</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990512020503254</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99917828097145</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99962966051992</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996122339172936</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001430871192721331</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008856612386046777</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0006920266296431887</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>8.127075735471474e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003866486934989517</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0009706601027670906</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01196190282823486</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000175185673351</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01247114579618529</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P17" t="n">
-        <v>107.7041137750555</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.5535258941245</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_16</t>
+          <t>model_28_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998434279835328</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990310624494485</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9991344379848808</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996064776756802</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9995911678721494</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000146153104654948</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009044606719969298</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007289498517846984</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>8.6358217402443e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004076540345935707</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0009656371210756401</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01208937982921159</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000178939447391</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01260404975700736</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P18" t="n">
-        <v>107.6617116473953</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.5111237664644</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_17</t>
+          <t>model_28_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998399060632766</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999012340871389</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9990936738107019</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9995847911941409</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995715666768428</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001494406626196918</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009219364433331212</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0007632801923111553</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>9.11173016315277e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004271987469713415</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0009609937289244458</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01222459253389216</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000182964499112</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01274501874645507</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P19" t="n">
-        <v>107.6172222989506</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.4666344180196</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_18</t>
+          <t>model_28_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998362838074323</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989950109270526</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9990559506794544</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9995646591167094</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995534207682493</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000152821879451617</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009381131856745375</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0007950494595055971</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>9.553527289297799e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004452923661992875</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009566772140746558</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01236211468364604</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000187104220077</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01288839549883407</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P20" t="n">
-        <v>107.5724750027084</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.4218871217774</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_19</t>
+          <t>model_28_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998326539675352</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989790240430826</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9990211598821968</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995459994613346</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995366770356854</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001562101756640076</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009530362401174157</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0008243492047132444</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>9.963012209448912e-05</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0004619878499170762</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009527099953051525</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01249840692504479</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000191252608531</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O21" t="n">
-        <v>0.013030489983113</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P21" t="n">
-        <v>107.5286163551689</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.3780284742379</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_20</t>
+          <t>model_28_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998290844783539</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989643171945701</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9989891471619958</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9995288321179903</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995212670687444</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001595421371322776</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009667644376477548</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0008513093384045215</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001033974843942398</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0004773534113993807</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009490607743987487</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01263099905519265</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000195332024738</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0131687268347448</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P22" t="n">
-        <v>107.4864049759639</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.335817095033</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_21</t>
+          <t>model_28_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998256317660682</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C23" t="n">
-        <v>0.998950824997507</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9989598027666642</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9995130568767953</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999507138947811</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001627650924944444</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000979358811367218</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0008760222905143222</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001068593507852919</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000491440820649807</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009457028214245217</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01275794232995448</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000199277981636</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01330107434752205</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P23" t="n">
-        <v>107.4464050939086</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q23" t="n">
-        <v>162.2958172129776</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_22</t>
+          <t>model_28_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998223264871077</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C24" t="n">
-        <v>0.998938476396799</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9989329424673096</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994985766494343</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994942023702289</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001658504253191657</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009908856880871614</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008986432129802395</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001100370272351352</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0005043401201076873</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0009426374233088557</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01287829279521031</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000203055443305</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01342654838124362</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P24" t="n">
-        <v>107.4088484561871</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q24" t="n">
-        <v>162.2582605752561</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_28_3_23</t>
+          <t>model_28_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998191904100479</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989271884738592</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9989083926512383</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994853470100974</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994823791303832</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001687778155966201</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001001422468668921</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009193183171020453</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001129402629587766</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005161292900304109</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0009398317414413193</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01299145163546477</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000206639531374</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01354452462759881</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P25" t="n">
-        <v>107.3738548172599</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.223266936329</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998162392702971</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989168920419054</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988859959770893</v>
+        <v>0.9999877189213422</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9994732672652522</v>
+        <v>0.9999999999995537</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9994715967463355</v>
+        <v>0.9999924619841859</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001715325750139507</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001011033735936722</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0009381801109611236</v>
+        <v>9.903151542305334e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001155911550861979</v>
+        <v>1.813269564866554e-13</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000526880603491793</v>
+        <v>4.951575861816146e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0009372630710743079</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01309704451446778</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000210012262518</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01365461281406838</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P26" t="n">
-        <v>107.3414747352453</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q26" t="n">
-        <v>162.1908868543143</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
   </sheetData>
